--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-06-dates-difference-with-datediff.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 6/06-06-dates-difference-with-datediff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C769A755-1B9E-431C-A20E-BE8B9ADF8F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2411206D-58F9-497D-8963-D21A7DD0F014}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EB2A2D-B400-4DD7-8A70-69A9F9536108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{96063254-9A64-4724-ABF8-428A578FEE44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96063254-9A64-4724-ABF8-428A578FEE44}"/>
   </bookViews>
   <sheets>
     <sheet name="DATEDIF" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t xml:space="preserve">Employee No. </t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>Using the DATEDIF Function</t>
+  </si>
+  <si>
+    <t>DATEDIF()</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>arithmetics</t>
   </si>
 </sst>
 </file>
@@ -333,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -356,17 +368,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,7 +713,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,427 +721,830 @@
     <col min="1" max="5" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <f ca="1">TODAY()</f>
-        <v>44569</v>
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>37990</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="4">
+        <f ca="1">DATEDIF(D6,$B$3,"y")</f>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f ca="1">DATEDIF(D6,$B$3,"m")</f>
+        <v>244</v>
+      </c>
+      <c r="G6">
+        <f ca="1">DATEDIF(D6,$B$3,"d")</f>
+        <v>7449</v>
+      </c>
+      <c r="H6" s="6">
+        <f ca="1">($B$3-D6)/365</f>
+        <v>20.408219178082192</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>34903</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="H7" s="1"/>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:E31" ca="1" si="0">DATEDIF(D7,$B$3,"y")</f>
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F31" ca="1" si="1">DATEDIF(D7,$B$3,"m")</f>
+        <v>346</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G31" ca="1" si="2">DATEDIF(D7,$B$3,"d")</f>
+        <v>10536</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" ref="H7:H31" ca="1" si="3">($B$3-D7)/365</f>
+        <v>28.865753424657534</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>37917</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="2"/>
+        <v>7522</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>20.608219178082191</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>30685</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="2"/>
+        <v>14754</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.421917808219177</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>36751</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="2"/>
+        <v>8688</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>23.802739726027397</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>33764</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="2"/>
+        <v>11675</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>31.986301369863014</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>34226</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="2"/>
+        <v>11213</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.720547945205478</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>37301</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="2"/>
+        <v>8138</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>22.295890410958904</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>30182</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>501</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="2"/>
+        <v>15257</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.8</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>36231</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="2"/>
+        <v>9208</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>25.227397260273971</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>30795</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="E16" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>481</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="2"/>
+        <v>14644</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>40.12054794520548</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>37164</v>
       </c>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="E17" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="2"/>
+        <v>8275</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>22.671232876712327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>32817</v>
       </c>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="E18" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="2"/>
+        <v>12622</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.580821917808223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>30362</v>
       </c>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>495</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="2"/>
+        <v>15077</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>41.30684931506849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>33656</v>
       </c>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="E20" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="2"/>
+        <v>11783</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.282191780821918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>35682</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="E21" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9757</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.731506849315068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>33642</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="E22" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>11797</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.320547945205476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>25821</v>
       </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="E23" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>644</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="2"/>
+        <v>19618</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.747945205479454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>23379</v>
       </c>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="E24" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>724</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>22060</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>60.438356164383563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>28556</v>
       </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="E25" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>554</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="2"/>
+        <v>16883</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>46.254794520547946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>21591</v>
       </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="E26" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>783</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="2"/>
+        <v>23848</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>65.336986301369862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>25538</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="E27" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>653</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="2"/>
+        <v>19901</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>54.523287671232879</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>33108</v>
       </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="E28" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>405</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
+        <v>12331</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.783561643835618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>33491</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="E29" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>392</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="2"/>
+        <v>11948</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>32.734246575342468</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>26335</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="E30" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>627</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>19104</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>52.339726027397262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>21981</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>23458</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>64.268493150684932</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
